--- a/30_t_tests.xlsx
+++ b/30_t_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Code/IULM/IULM_DDM2324_Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F867189-9F43-734D-8837-082AAAE10C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B83AE-F7B1-814B-92B5-48FF05CB7B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35200" windowHeight="19040" xr2:uid="{D7550857-DC8F-4F37-BCB5-D974FA4E0186}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Pre Marketing</t>
   </si>
@@ -100,6 +100,75 @@
   </si>
   <si>
     <t>Earning</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Rapporto Tra Varianze</t>
+  </si>
+  <si>
+    <t>Quindi si usa il T-Test con Varianze Diverse</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Unequal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Istruzioni</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Earning/Imps M</t>
+  </si>
+  <si>
+    <t>Earning/Imp Avg</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Ratio -&gt;</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
   </si>
 </sst>
 </file>
@@ -139,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -165,11 +234,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,27 +358,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,6 +408,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8914917E-F1A8-E1B8-EBAE-9CB3EF9577F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="3759200"/>
+          <a:ext cx="6489700" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C99C193-B123-E1AE-16BB-1FBC7D68CA58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7302500" y="3721100"/>
+          <a:ext cx="6959600" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,180 +800,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC9A23D-3897-420D-8A1C-CD9A50585447}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>90</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>85</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="L3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>88</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>89</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="L5" s="18"/>
+      <c r="M5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>94</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="L6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="10">
+        <v>87.916666666666671</v>
+      </c>
+      <c r="N6" s="21">
+        <v>80.833333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>91</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="L7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="10">
+        <v>16.265151515151516</v>
+      </c>
+      <c r="N7" s="21">
+        <v>104.1515151515156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>79</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="L8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="10">
+        <v>12</v>
+      </c>
+      <c r="N8" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>83</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="L9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>87</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="L10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="10">
+        <v>14</v>
+      </c>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>88</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="L11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2.2360679774997889</v>
+      </c>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>91</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="L12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="10">
+        <v>2.107289534113567E-2</v>
+      </c>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>90</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="L13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1.7613101357748921</v>
+      </c>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="L14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="10">
+        <v>4.2145790682271339E-2</v>
+      </c>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <f>_xlfn.VAR.S(B2:B13)</f>
+        <v>16.265151515151516</v>
+      </c>
+      <c r="C15" s="1">
+        <f>_xlfn.VAR.S(C2:C13)</f>
+        <v>104.1515151515156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9">
+        <f>C15/B15</f>
+        <v>6.4033535165347271</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="11">
+        <v>2.1447866879178044</v>
+      </c>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02FC70-6B97-4A9B-B581-718877DE20ED}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -700,7 +1107,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -710,8 +1117,15 @@
       <c r="D4" s="1">
         <v>799</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -721,8 +1135,17 @@
       <c r="D5" s="1">
         <v>575</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10">
+        <v>709.28571428571433</v>
+      </c>
+      <c r="J5" s="10">
+        <v>823.28571428571433</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -732,8 +1155,17 @@
       <c r="D6" s="1">
         <v>940</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10">
+        <v>17198.238095238106</v>
+      </c>
+      <c r="J6" s="10">
+        <v>27186.571428571362</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -743,8 +1175,17 @@
       <c r="D7" s="1">
         <v>917</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="10">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -754,8 +1195,15 @@
       <c r="D8" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-0.38675789549972978</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,50 +1213,116 @@
       <c r="D9" s="1">
         <v>748</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="10">
+        <v>-1.2200998130363352</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.13410116036065972</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1.9431802805153031</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.268202320721319</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2.4469118511449697</v>
+      </c>
+      <c r="J15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD3BB44-8A3A-A54F-B868-7366BE6A36F5}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -823,18 +1337,27 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>82529.459271245214</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>6090.0773165671744</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>665.21125488930011</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>2311.2771426267559</v>
       </c>
       <c r="E3" s="4">
@@ -849,18 +1372,26 @@
       <c r="H3" s="4">
         <v>1939.6112434903071</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="J3" s="1">
+        <f>D3/A3</f>
+        <v>2.8005480261665151E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f>H3/E3</f>
+        <v>1.6149497576593182E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>98050.451926393813</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>3382.8617861824132</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>315.08489497275121</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1742.8068554698441</v>
       </c>
       <c r="E4" s="4">
@@ -875,18 +1406,33 @@
       <c r="H4" s="4">
         <v>2929.4058201812841</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J42" si="0">D4/A4</f>
+        <v>1.7774592785948239E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K42" si="1">H4/E4</f>
+        <v>2.1735376114482233E-2</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>82696.023549250618</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>4167.9657499441164</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>458.08373810210639</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1797.82744678275</v>
       </c>
       <c r="E5" s="4">
@@ -901,18 +1447,35 @@
       <c r="H5" s="4">
         <v>2526.2448773886649</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1740192207815555E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3433114394321511E-2</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1.9472956333671222E-2</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2.1397134770401713E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>109914.4003979671</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>4910.8822401967818</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>487.09077316828859</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1696.229177930192</v>
       </c>
       <c r="E6" s="4">
@@ -927,18 +1490,35 @@
       <c r="H6" s="4">
         <v>2281.4285737352338</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5432274313362531E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9592281124588704E-2</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2.2758987921003678E-5</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1.870221374318042E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>108457.7626296966</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>5987.6558110016376</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>441.03404971667959</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1543.720179437162</v>
       </c>
       <c r="E7" s="4">
@@ -953,18 +1533,35 @@
       <c r="H7" s="4">
         <v>2781.6975207750979</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.423337658833909E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9173209711239151E-2</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="10">
+        <v>40</v>
+      </c>
+      <c r="O7" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>77773.633899964479</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>4462.2065855010633</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>519.6696558937864</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2081.851850243062</v>
       </c>
       <c r="E8" s="4">
@@ -979,18 +1576,33 @@
       <c r="H8" s="4">
         <v>2157.4085515356228</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.676809280791511E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8610702123004801E-2</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2.0730600832092049E-5</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>95110.586266208949</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>3555.5806700522089</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>512.92874564614237</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1815.006613573416</v>
       </c>
       <c r="E9" s="4">
@@ -1005,18 +1617,33 @@
       <c r="H9" s="4">
         <v>2560.4112017799221</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9083118765489668E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4128318692270473E-2</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>106649.18307494061</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>4358.027043405119</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>747.02012324542159</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1965.100400025872</v>
       </c>
       <c r="E10" s="4">
@@ -1031,18 +1658,33 @@
       <c r="H10" s="4">
         <v>2563.5797559058478</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8425836404626077E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0352798120563852E-2</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="10">
+        <v>78</v>
+      </c>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>122709.7165943505</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>5091.5589639665022</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>745.98568187817045</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1651.662991265662</v>
       </c>
       <c r="E11" s="4">
@@ -1057,18 +1699,33 @@
       <c r="H11" s="4">
         <v>2242.232586345403</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3459920184851147E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9092114220654051E-2</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="25">
+        <v>-1.8899677632412553</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>79498.248657834905</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>6653.8455152792121</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>470.50136679870451</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>2456.304240121784</v>
       </c>
       <c r="E12" s="4">
@@ -1083,18 +1740,33 @@
       <c r="H12" s="4">
         <v>2368.1085687478671</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0897589338022533E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8039747236176209E-2</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="25">
+        <v>3.123864798834964E-2</v>
+      </c>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>83676.936008106059</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>4273.4002113936031</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>386.09788079162308</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2174.0935686145058</v>
       </c>
       <c r="E13" s="4">
@@ -1109,18 +1781,33 @@
       <c r="H13" s="4">
         <v>2613.3939259035469</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5981993035737998E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7129210866361837E-2</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1.6646246445066122</v>
+      </c>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>132781.0198653691</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>5830.0065219391672</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>628.87236601014251</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>1992.2247934098391</v>
       </c>
       <c r="E14" s="4">
@@ -1135,18 +1822,33 @@
       <c r="H14" s="4">
         <v>2221.4598434246518</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5003837110377817E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7944140396865014E-2</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="10">
+        <v>6.2477295976699279E-2</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>87939.42224826102</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>3993.3192642616959</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>613.71231477912465</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>1654.70128462192</v>
       </c>
       <c r="E15" s="4">
@@ -1161,18 +1863,33 @@
       <c r="H15" s="4">
         <v>3171.4897075513768</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8816376572847467E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.011330784595906E-2</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.9908470688116919</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>117827.0615334318</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>5560.367662840702</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>739.53718895838188</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>1985.2206438280359</v>
       </c>
       <c r="E16" s="4">
@@ -1187,18 +1904,26 @@
       <c r="H16" s="4">
         <v>1947.7471279544029</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6848596731445748E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6607416207802723E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>129146.68958374541</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>5537.6092424672634</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>458.15592462832961</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>1601.4071586296909</v>
       </c>
       <c r="E17" s="4">
@@ -1213,18 +1938,26 @@
       <c r="H17" s="4">
         <v>2811.5027309850861</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2399908691358716E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3453041157940564E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>101616.4655489102</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>5323.5482533925669</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>801.79502004276605</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>2182.1617076268799</v>
       </c>
       <c r="E18" s="4">
@@ -1239,18 +1972,26 @@
       <c r="H18" s="4">
         <v>2260.0346252448712</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1474489354056093E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6469868845415708E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>45475.942964961672</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>7370.2143796202135</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>400.18882599710309</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>1253.989524652497</v>
       </c>
       <c r="E19" s="4">
@@ -1265,18 +2006,26 @@
       <c r="H19" s="4">
         <v>2087.988270067015</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7574788842062527E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5537110327072832E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>147539.33632859169</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>3856.7268530985948</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>329.37703181576092</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>2143.5899142887251</v>
       </c>
       <c r="E20" s="4">
@@ -1291,18 +2040,26 @@
       <c r="H20" s="4">
         <v>2537.6762080054609</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4528938299645302E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.044361918294701E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>82067.899936272588</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>6609.1834331715409</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>267.02894280569262</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>1791.7989835342</v>
       </c>
       <c r="E21" s="4">
@@ -1317,18 +2074,26 @@
       <c r="H21" s="4">
         <v>2682.820438209867</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1833128238026911E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3140758250509642E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>81872.985723314458</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>7959.1250687371139</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>729.16154888740289</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>1331.696456993194</v>
       </c>
       <c r="E22" s="4">
@@ -1343,18 +2108,26 @@
       <c r="H22" s="4">
         <v>2299.8785655794509</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6265395053425724E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9946267147431803E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>105493.023206778</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>2189.7531573307119</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>666.48206711851503</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>2111.8737403608889</v>
       </c>
       <c r="E23" s="4">
@@ -1369,18 +2142,26 @@
       <c r="H23" s="4">
         <v>2538.088933112394</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0019084449038705E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1381547520454982E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>96122.657620329861</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>7453.1508197749918</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>513.57882912260891</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>1629.791814603396</v>
       </c>
       <c r="E24" s="4">
@@ -1395,18 +2176,26 @@
       <c r="H24" s="4">
         <v>2832.5846663468151</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6955334516871458E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9049955484568638E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>83676.602428117942</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>7153.9741945479354</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>487.82877427860069</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>1989.6419178697099</v>
       </c>
       <c r="E25" s="4">
@@ -1421,18 +2210,26 @@
       <c r="H25" s="4">
         <v>2755.779769903646</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3777756985041358E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.123072583285995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>80254.331644181279</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>3075.3111962579769</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>530.67988413227852</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>2101.3194847220961</v>
       </c>
       <c r="E26" s="4">
@@ -1447,18 +2244,26 @@
       <c r="H26" s="4">
         <v>2791.0109853624258</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.618325318611571E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6588344044135872E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>123961.868719497</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>4898.7884144756317</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>585.63916671858738</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>2042.18293050276</v>
       </c>
       <c r="E27" s="4">
@@ -1473,18 +2278,26 @@
       <c r="H27" s="4">
         <v>2615.5729631907252</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.647428319367987E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3871277562396136E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>94472.196589024854</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>5937.4794738908804</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>686.41228600833722</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>1616.5890068409601</v>
       </c>
       <c r="E28" s="4">
@@ -1499,18 +2312,26 @@
       <c r="H28" s="4">
         <v>2366.8224111171262</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7111796541298633E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0810400768866266E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>110479.8068235492</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>3585.0316783677708</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>531.73272935241084</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>2185.6948968708789</v>
       </c>
       <c r="E29" s="4">
@@ -1525,18 +2346,26 @@
       <c r="H29" s="4">
         <v>2790.3948262024142</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9783659654308786E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8244824525006684E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>136171.2716521672</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>5784.3219272043398</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>772.03287924627057</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>1704.134541361673</v>
       </c>
       <c r="E30" s="4">
@@ -1551,18 +2380,26 @@
       <c r="H30" s="4">
         <v>2286.7145231829418</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2514640721830634E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8342286059318529E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>114341.4015464992</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>3806.1458045349959</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>620.13587522567559</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>1896.7496946211961</v>
       </c>
       <c r="E31" s="4">
@@ -1577,18 +2414,26 @@
       <c r="H31" s="4">
         <v>2633.4028781001011</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6588476868108402E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1851525472593326E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>94923.683704577095</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>5678.9819620808203</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>468.8780309042906</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>1857.201861506938</v>
       </c>
       <c r="E32" s="4">
@@ -1603,18 +2448,26 @@
       <c r="H32" s="4">
         <v>2260.6307802510032</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.956521058840225E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9159634030805402E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>108051.82405185531</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>5919.2449704266237</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>521.25811052945232</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>2015.0554706323171</v>
       </c>
       <c r="E33" s="4">
@@ -1629,18 +2482,26 @@
       <c r="H33" s="4">
         <v>2189.6126687647611</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8648972271539523E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3805365285834514E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>92044.500106692038</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>4667.2052266049523</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>729.3652619754522</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <v>2497.2952178517521</v>
       </c>
       <c r="E34" s="4">
@@ -1655,18 +2516,26 @@
       <c r="H34" s="4">
         <v>2786.1460328042249</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7131389870736967E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9708484384689008E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>101530.9502286905</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>5626.9012270369631</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>555.00202363179005</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>2090.3712801872598</v>
       </c>
       <c r="E35" s="4">
@@ -1681,18 +2550,26 @@
       <c r="H35" s="4">
         <v>2464.662920793256</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.058851291629658E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0060678647749491E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>94225.520522070423</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>5255.6386646728552</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>619.86718802344808</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <v>2090.3610811598951</v>
       </c>
       <c r="E36" s="4">
@@ -1707,18 +2584,26 @@
       <c r="H36" s="4">
         <v>2778.8423099895558</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2184659416874968E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9817794806208162E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>94138.627501976196</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>6994.1840995769489</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>593.02579133899053</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <v>1571.870841768565</v>
       </c>
       <c r="E37" s="4">
@@ -1733,18 +2618,26 @@
       <c r="H37" s="4">
         <v>2551.2432806679972</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6697405554755594E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8590843343793715E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>132064.2190030994</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>3747.1575438536861</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>551.07240648097502</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <v>2256.975589347298</v>
       </c>
       <c r="E38" s="4">
@@ -1759,18 +2652,26 @@
       <c r="H38" s="4">
         <v>2277.863984286158</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7089985511475513E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8748236463478346E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>86409.941795679595</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="4">
         <v>4608.256205420982</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>345.04603255112482</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <v>1781.3576899398661</v>
       </c>
       <c r="E39" s="4">
@@ -1785,18 +2686,26 @@
       <c r="H39" s="4">
         <v>2530.8413270730948</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0615193725647574E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9363412122892248E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>123678.9342344882</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>3649.0737869522491</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>476.16812794463311</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <v>2187.721217129083</v>
       </c>
       <c r="E40" s="4">
@@ -1811,18 +2720,26 @@
       <c r="H40" s="4">
         <v>2597.9176322216631</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7688713366346514E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2303192395211856E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>101997.4940993183</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="4">
         <v>4736.35336897671</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>474.61353747535429</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <v>2254.5638335071699</v>
       </c>
       <c r="E41" s="4">
@@ -1837,18 +2754,26 @@
       <c r="H41" s="4">
         <v>2595.8578800119321</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2104110041290106E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2844893362721651E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>121085.8812204827</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>4285.1786080844486</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>590.40601972278841</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <v>1289.308947650263</v>
       </c>
       <c r="E42" s="4">
@@ -1862,6 +2787,38 @@
       </c>
       <c r="H42" s="4">
         <v>2967.518389831484</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0647888380170334E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9020069160283487E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <f>_xlfn.VAR.S(J3:J42)</f>
+        <v>2.2758987921003678E-5</v>
+      </c>
+      <c r="K44">
+        <f>_xlfn.VAR.S(K3:K42)</f>
+        <v>1.870221374318042E-5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44">
+        <f>K44/J44</f>
+        <v>0.82175067749478581</v>
       </c>
     </row>
   </sheetData>
